--- a/testdata/binance/binance.xlsx
+++ b/testdata/binance/binance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -104,14 +104,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -194,16 +194,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="26.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.77"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,7 +232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -258,10 +258,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
